--- a/biology/Botanique/Louhhecken/Louhhecken.xlsx
+++ b/biology/Botanique/Louhhecken/Louhhecken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Louhhecken (expression luxembourgeoise composée des noms Louh = tanin et Hecken = haies) étaient pendant plus de 300 ans les boisements typiques des versants de l'Oesling.
 Elles furent plantées ou semées à partir du premier quart du XVIIIe siècle afin d'approvisionner les nombreuses tanneries installées au bord des rivières du nord du pays, surtout dans les vallées de la Clerve et de la Wiltz. 
